--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgav.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H2">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>38.793199431896</v>
+        <v>1.016805354127222</v>
       </c>
       <c r="R2">
-        <v>349.138794887064</v>
+        <v>9.151248187145001</v>
       </c>
       <c r="S2">
-        <v>0.1614758296572797</v>
+        <v>0.01647576914027086</v>
       </c>
       <c r="T2">
-        <v>0.1614758296572797</v>
+        <v>0.01647576914027086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H3">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>95.29765144964712</v>
+        <v>15.16272007294089</v>
       </c>
       <c r="R3">
-        <v>857.6788630468242</v>
+        <v>136.464480656468</v>
       </c>
       <c r="S3">
-        <v>0.3966743542057454</v>
+        <v>0.2456885916722543</v>
       </c>
       <c r="T3">
-        <v>0.3966743542057454</v>
+        <v>0.2456885916722542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H4">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>48.856834126646</v>
+        <v>5.755654167421667</v>
       </c>
       <c r="R4">
-        <v>439.711507139814</v>
+        <v>51.800887506795</v>
       </c>
       <c r="S4">
-        <v>0.2033654852025872</v>
+        <v>0.09326153617186038</v>
       </c>
       <c r="T4">
-        <v>0.2033654852025872</v>
+        <v>0.09326153617186038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H5">
         <v>2.004951</v>
       </c>
       <c r="I5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>11.051025258468</v>
+        <v>1.820496621861667</v>
       </c>
       <c r="R5">
-        <v>99.45922732621199</v>
+        <v>16.384469596755</v>
       </c>
       <c r="S5">
-        <v>0.04599964680168837</v>
+        <v>0.0294983518140316</v>
       </c>
       <c r="T5">
-        <v>0.04599964680168837</v>
+        <v>0.0294983518140316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H6">
         <v>2.004951</v>
       </c>
       <c r="I6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>27.14745802525467</v>
       </c>
       <c r="R6">
-        <v>244.327122227292</v>
+        <v>244.3271222272921</v>
       </c>
       <c r="S6">
-        <v>0.1130006901186372</v>
+        <v>0.4398828638674993</v>
       </c>
       <c r="T6">
-        <v>0.1130006901186372</v>
+        <v>0.4398828638674993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H7">
         <v>2.004951</v>
       </c>
       <c r="I7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>13.917854569593</v>
+        <v>10.304970293345</v>
       </c>
       <c r="R7">
-        <v>125.260691126337</v>
+        <v>92.744732640105</v>
       </c>
       <c r="S7">
-        <v>0.0579327600349088</v>
+        <v>0.1669762170914556</v>
       </c>
       <c r="T7">
-        <v>0.05793276003490879</v>
+        <v>0.1669762170914556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H8">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>1.097864891976</v>
+        <v>0.02350631838222222</v>
       </c>
       <c r="R8">
-        <v>9.880784027783999</v>
+        <v>0.21155686544</v>
       </c>
       <c r="S8">
-        <v>0.004569838190187138</v>
+        <v>0.000380883788063474</v>
       </c>
       <c r="T8">
-        <v>0.004569838190187139</v>
+        <v>0.0003808837880634738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H9">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>2.696966152482667</v>
+        <v>0.350528962232889</v>
       </c>
       <c r="R9">
-        <v>24.272695372344</v>
+        <v>3.154760660096001</v>
       </c>
       <c r="S9">
-        <v>0.01122606161407955</v>
+        <v>0.005679783485881612</v>
       </c>
       <c r="T9">
-        <v>0.01122606161407955</v>
+        <v>0.00567978348588161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H10">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>1.382670254226</v>
+        <v>0.1330581500266667</v>
       </c>
       <c r="R10">
-        <v>12.444032288034</v>
+        <v>1.19752335024</v>
       </c>
       <c r="S10">
-        <v>0.00575533417488667</v>
+        <v>0.002156002968682827</v>
       </c>
       <c r="T10">
-        <v>0.00575533417488667</v>
+        <v>0.002156002968682827</v>
       </c>
     </row>
   </sheetData>
